--- a/Diagramas de UC e Especificações Textuais/1-Especificação do Centro Estatístico.xlsx
+++ b/Diagramas de UC e Especificações Textuais/1-Especificação do Centro Estatístico.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RS\Documents\GitHub\EAW_MEI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
@@ -754,90 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -845,35 +756,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -881,15 +771,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -900,13 +784,124 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1189,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,46 +1204,46 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4"/>
@@ -1267,7 +1262,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
@@ -1277,12 +1272,12 @@
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -1294,10 +1289,10 @@
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="9"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -1309,10 +1304,10 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13">
@@ -1324,10 +1319,10 @@
       <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13">
@@ -1337,11 +1332,11 @@
         <v>12</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1353,14 +1348,14 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="85" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
@@ -1370,12 +1365,12 @@
         <v>25</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -1383,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,12 +1397,12 @@
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1415,12 +1410,12 @@
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1428,12 +1423,12 @@
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,15 +1436,15 @@
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4"/>
@@ -1470,87 +1465,87 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="61">
+      <c r="B21" s="82"/>
+      <c r="C21" s="28">
         <v>1</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="64" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="88" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67">
+      <c r="B22" s="82"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33">
         <v>2</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67">
+      <c r="B23" s="82"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33">
         <v>3</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71">
+      <c r="B24" s="82"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36">
         <v>4</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="68"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71">
+      <c r="B25" s="82"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36">
         <v>5</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -1562,12 +1557,12 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
@@ -1577,10 +1572,10 @@
         <v>25</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="27"/>
+      <c r="H27" s="86"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -1588,53 +1583,53 @@
         <v>12</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="87"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4"/>
@@ -1653,82 +1648,82 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="73">
+      <c r="B35" s="82"/>
+      <c r="C35" s="38">
         <v>1</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74" t="s">
+      <c r="E35" s="40"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="83" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79">
+      <c r="B36" s="82"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43">
         <v>2</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G36" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="80"/>
+      <c r="H36" s="84"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79">
+      <c r="B37" s="82"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43">
         <v>3</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="78" t="s">
+      <c r="G37" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="80"/>
+      <c r="H37" s="84"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83">
+      <c r="B38" s="82"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46">
         <v>4</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="80"/>
+      <c r="H38" s="84"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83">
+      <c r="B39" s="82"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46">
         <v>5</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="82"/>
-      <c r="H39" s="80"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="84"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1740,12 +1735,12 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
@@ -1755,10 +1750,10 @@
         <v>25</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="27"/>
+      <c r="H41" s="86"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1766,75 +1761,75 @@
         <v>12</v>
       </c>
       <c r="G42" s="16"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="47">
+      <c r="E49" s="19">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1843,30 +1838,30 @@
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="2">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="47">
+      <c r="E51" s="19">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -1875,13 +1870,13 @@
       <c r="G51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="58"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="47">
+      <c r="E52" s="19">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -1890,218 +1885,190 @@
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="58"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="47">
+      <c r="E53" s="19">
         <v>5</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="58"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50">
+      <c r="B54" s="74"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22">
         <v>6</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="60"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="68"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="68"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="71"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="56" t="s">
+      <c r="H60" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="85">
+      <c r="B61" s="59"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="48">
         <v>1</v>
       </c>
-      <c r="F61" s="66" t="s">
+      <c r="F61" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="66" t="s">
+      <c r="G61" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="91" t="s">
+      <c r="H61" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
-      <c r="C62" s="67">
+      <c r="B62" s="59"/>
+      <c r="C62" s="33">
         <v>2</v>
       </c>
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66" t="s">
+      <c r="E62" s="48"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="68"/>
+      <c r="H62" s="56"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="24"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="85">
+      <c r="B63" s="59"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="48">
         <v>3</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="F63" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="66" t="s">
+      <c r="G63" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="68"/>
+      <c r="H63" s="56"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="24"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="85">
+      <c r="B64" s="59"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="48">
         <v>4</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="66" t="s">
+      <c r="G64" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="68"/>
+      <c r="H64" s="56"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="24"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="85">
+      <c r="B65" s="59"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="48">
         <v>5</v>
       </c>
-      <c r="F65" s="86" t="s">
+      <c r="F65" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="66" t="s">
+      <c r="G65" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="68"/>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="89">
+      <c r="B66" s="60"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52">
         <v>6</v>
       </c>
-      <c r="F66" s="90" t="s">
+      <c r="F66" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="92"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H61:H66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B20:B25"/>
     <mergeCell ref="H7:H11"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -2110,6 +2077,34 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
